--- a/config_debug/cpl_ljyjcfk_config.xlsx
+++ b/config_debug/cpl_ljyjcfk_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>id|</t>
   </si>
@@ -171,6 +171,79 @@
   </si>
   <si>
     <t>ty_icon_flq5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|权限</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xyxyj_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xyxyj_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xyxyj_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xyxyj_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xyxyj_cps</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000金币","8福利券","10福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币","40福利券","50福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5万金币","80福利券","100福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币","180福利券","200福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","400福利券","500福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","900福利券","1000福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"450万金币","4800福利券","5000福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"800万金币","9000福利券","1万福利券"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1500万金币","1.8万福利券","2万福利券"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +319,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +395,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,11 +689,13 @@
     <col min="3" max="3" width="27.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="4"/>
+    <col min="6" max="6" width="78.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" style="4"/>
+    <col min="8" max="8" width="41" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -633,8 +717,11 @@
       <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -656,8 +743,11 @@
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -679,8 +769,11 @@
       <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -702,8 +795,11 @@
       <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -725,8 +821,11 @@
       <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -748,8 +847,11 @@
       <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -771,8 +873,11 @@
       <c r="G7" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -794,8 +899,11 @@
       <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -817,8 +925,11 @@
       <c r="G9" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -840,8 +951,244 @@
       <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H10" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>200</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C15" s="7">
+        <v>50000000</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6">
+        <v>500</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C17" s="7">
+        <v>500000000</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1000057</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/cpl_ljyjcfk_config.xlsx
+++ b/config_debug/cpl_ljyjcfk_config.xlsx
@@ -15,12 +15,15 @@
     <sheet name="base|基础" sheetId="2" r:id="rId1"/>
     <sheet name="helpinfo|帮助信息" sheetId="7" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>id|</t>
   </si>
@@ -245,6 +248,76 @@
   <si>
     <t>"1500万金币","1.8万福利券","2万福利券"</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_value|奖励数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type|奖励类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum","shop_gold_sum"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","shop_gold_sum"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,10</t>
+  </si>
+  <si>
+    <t>30,40,20</t>
+  </si>
+  <si>
+    <t>50,80,100</t>
+  </si>
+  <si>
+    <t>5000,8,10</t>
+  </si>
+  <si>
+    <t>30000,40,50</t>
+  </si>
+  <si>
+    <t>50000,80,100</t>
+  </si>
+  <si>
+    <t>150,180,200</t>
+  </si>
+  <si>
+    <t>300,400,500</t>
+  </si>
+  <si>
+    <t>800,900,1000</t>
+  </si>
+  <si>
+    <t>4500,4800,5000</t>
+  </si>
+  <si>
+    <t>8000,9000,10000</t>
+  </si>
+  <si>
+    <t>15000,18000,20000</t>
+  </si>
+  <si>
+    <t>150000,180,200</t>
+  </si>
+  <si>
+    <t>300000,400,500</t>
+  </si>
+  <si>
+    <t>800000,900,1000</t>
+  </si>
+  <si>
+    <t>4500000,4800,5000</t>
+  </si>
+  <si>
+    <t>8000000,9000,10000</t>
+  </si>
+  <si>
+    <t>15000000,18000,20000</t>
   </si>
 </sst>
 </file>
@@ -369,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +471,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,9 +752,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -690,12 +766,13 @@
     <col min="4" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="78.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4"/>
-    <col min="8" max="8" width="41" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="4"/>
+    <col min="7" max="8" width="47.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4"/>
+    <col min="10" max="10" width="41" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -715,13 +792,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -740,14 +823,20 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -766,14 +855,20 @@
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -792,14 +887,20 @@
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -818,14 +919,20 @@
       <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -844,14 +951,20 @@
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -870,14 +983,20 @@
       <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -896,14 +1015,20 @@
       <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -922,14 +1047,20 @@
       <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -948,14 +1079,20 @@
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -974,14 +1111,20 @@
       <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1000,14 +1143,20 @@
       <c r="F12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1026,14 +1175,20 @@
       <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1052,14 +1207,20 @@
       <c r="F14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1078,14 +1239,20 @@
       <c r="F15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1104,14 +1271,20 @@
       <c r="F16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1130,14 +1303,20 @@
       <c r="F17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1156,14 +1335,20 @@
       <c r="F18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1182,10 +1367,16 @@
       <c r="F19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
